--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -28,7 +28,7 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>MeterOffset</t>
+    <t>DashDistance</t>
   </si>
   <si>
     <t>uint32</t>
@@ -49,7 +49,7 @@
     <t>角色的移动速度</t>
   </si>
   <si>
-    <t>角色多少拍行动一次</t>
+    <t>角色的冲刺距离</t>
   </si>
   <si>
     <t>zhangsan</t>
@@ -1041,10 +1041,10 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1074,6 +1074,7 @@
       <c r="E1" s="1">
         <v>5</v>
       </c>
+      <c r="F1" s="1"/>
       <c r="H1" s="1">
         <v>8</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
@@ -1146,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1163,7 +1164,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1180,7 +1181,7 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1044,7 +1044,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1074,7 +1074,6 @@
       <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="H1" s="1">
         <v>8</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1164,7 +1163,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1178,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>lisi</t>
   </si>
   <si>
-    <t>Prefabs/Agent/X_Bot@Dancing_Running_Man</t>
+    <t>Prefabs/Agent/HeroRig</t>
   </si>
   <si>
     <t>Robot</t>
@@ -1044,7 +1044,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1143,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69351A09-6D21-4A96-AFBC-6B46774E3A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D7BCC-08EB-401E-AE52-DD49F72DA65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>Robot</t>
   </si>
   <si>
-    <t>Prefabs/Agent/EagleHou</t>
+    <t>Prefabs/Agent/TestHeroRig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D7BCC-08EB-401E-AE52-DD49F72DA65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -61,27 +55,32 @@
     <t>zhangsan</t>
   </si>
   <si>
-    <t>Prefabs/Agent/X_Bot@Hip_Hop_Dancing</t>
+    <t>Prefabs/Agent/Hero/X_Bot@Hip_Hop_Dancing</t>
   </si>
   <si>
     <t>lisi</t>
   </si>
   <si>
-    <t>Prefabs/Agent/HeroRig</t>
+    <t>Prefabs/Agent/Hero/HeroRig</t>
   </si>
   <si>
     <t>Robot</t>
   </si>
   <si>
-    <t>Prefabs/Agent/TestHeroRig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Prefabs/Agent/Hero/TestHeroRig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,9 +89,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,20 +99,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,9 +442,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -134,26 +697,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -440,31 +1047,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.4416666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -487,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -521,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -555,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -572,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -590,8 +1198,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,12 @@
     <t>DashDistance</t>
   </si>
   <si>
+    <t>AttackRadius</t>
+  </si>
+  <si>
+    <t>InteractRadius</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -50,6 +56,12 @@
   </si>
   <si>
     <t>角色的冲刺距离</t>
+  </si>
+  <si>
+    <t>攻击半径</t>
+  </si>
+  <si>
+    <t>交互半径</t>
   </si>
   <si>
     <t>zhangsan</t>
@@ -80,14 +92,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,33 +565,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,97 +604,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -697,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1063,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1088,6 +1093,12 @@
       <c r="E1" s="1">
         <v>5</v>
       </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
       <c r="H1" s="1">
         <v>8</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,50 +1122,68 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1162,16 +1191,22 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1179,21 +1214,33 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9116293D-3080-496A-830D-142793AF1E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA060085-4085-4E8D-8685-146306C23304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,114 +85,115 @@
     <t>Robot</t>
   </si>
   <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDmgRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Attr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtraEnergyGain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外能量获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeatTolerance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节拍容差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#HeroSpecial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄特有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Agent/Hero/TestHeroRig</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减免系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDmgRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtraEnergyGain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外能量获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeatTolerance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节拍容差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuckyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#HeroSpecial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄特有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,9 +574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -677,40 +678,40 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -736,40 +737,40 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -795,40 +796,40 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -945,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA060085-4085-4E8D-8685-146306C23304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +37,45 @@
     <t>InteractRadius</t>
   </si>
   <si>
+    <t>FollowRadius</t>
+  </si>
+  <si>
+    <t>#Attr</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>BaseAttack</t>
+  </si>
+  <si>
+    <t>DefenseRate</t>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>CriticalDmgRate</t>
+  </si>
+  <si>
+    <t>DodgeRate</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>#HeroSpecial</t>
+  </si>
+  <si>
+    <t>ExtraEnergyGain</t>
+  </si>
+  <si>
+    <t>BeatTolerance</t>
+  </si>
+  <si>
+    <t>LuckyRate</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -52,6 +85,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -70,6 +106,45 @@
     <t>交互半径</t>
   </si>
   <si>
+    <t>跟随半径</t>
+  </si>
+  <si>
+    <t>角色属性</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>基础攻击值</t>
+  </si>
+  <si>
+    <t>伤害减免系数</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>闪避率</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>英雄特有</t>
+  </si>
+  <si>
+    <t>额外能量获取</t>
+  </si>
+  <si>
+    <t>节拍容差</t>
+  </si>
+  <si>
+    <t>幸运值</t>
+  </si>
+  <si>
     <t>zhangsan</t>
   </si>
   <si>
@@ -85,132 +160,23 @@
     <t>Robot</t>
   </si>
   <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减免系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDmgRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtraEnergyGain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外能量获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeatTolerance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节拍容差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuckyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#HeroSpecial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄特有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Agent/Hero/TestHeroRig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +185,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -227,19 +192,348 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -247,9 +541,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -257,29 +793,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -566,43 +1146,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.2166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1083333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5583333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.8833333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5583333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.2166666666667" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -624,7 +1205,7 @@
       <c r="G1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="H1" s="1">
         <v>8</v>
       </c>
       <c r="J1" s="1">
@@ -645,7 +1226,7 @@
       <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
       <c r="R1" s="1">
@@ -654,8 +1235,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,170 +1261,179 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>45</v>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -854,46 +1447,49 @@
       <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1.5</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>5</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -907,43 +1503,46 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>1.5</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>48</v>
@@ -960,40 +1559,43 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
         <v>100</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>1.5</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>5</v>
       </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
       <c r="R7" s="1">
         <v>0</v>
       </c>
       <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A58F5F7-1F19-4989-8873-7BDA905F743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -166,14 +172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,345 +195,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -541,251 +217,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -800,66 +234,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1146,44 +536,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.775" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.2166666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.2166666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1083333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8833333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.4416666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5583333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.8833333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5583333333333" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.2166666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1239,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1481,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1537,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1594,8 +983,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A58F5F7-1F19-4989-8873-7BDA905F743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673F502C-1CC0-4E01-AFE7-E3FC5C51CB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1830" windowWidth="17235" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -166,14 +166,15 @@
     <t>Robot</t>
   </si>
   <si>
-    <t>Prefabs/Agent/Hero/TestHeroRig</t>
+    <t>Prefabs/Agent/Hero/HeroKanaRig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,19 +186,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -546,33 +544,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -628,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -752,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -870,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\Dongcidaci\Excel2Proto\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673F502C-1CC0-4E01-AFE7-E3FC5C51CB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9B885-AF15-436F-8B8F-10666A131A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1830" windowWidth="17235" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="456" windowWidth="16224" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +186,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -544,33 +547,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -626,7 +629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -750,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -868,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9B885-AF15-436F-8B8F-10666A131A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F3C9F-77E6-4986-A757-8BAE3DAFB8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="456" windowWidth="16224" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
     <t>Robot</t>
   </si>
   <si>
-    <t>Prefabs/Agent/Hero/HeroKanaRig</t>
+    <t>Prefabs/Agent/Hero/HeroEagle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +239,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -934,7 +944,7 @@
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="1">

--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F3C9F-77E6-4986-A757-8BAE3DAFB8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="456" windowWidth="16224" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +40,9 @@
     <t>FollowRadius</t>
   </si>
   <si>
+    <t>TurnSpeed</t>
+  </si>
+  <si>
     <t>#Attr</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
     <t>跟随半径</t>
   </si>
   <si>
+    <t>转身速率</t>
+  </si>
+  <si>
     <t>角色属性</t>
   </si>
   <si>
@@ -167,14 +167,19 @@
   </si>
   <si>
     <t>Prefabs/Agent/Hero/HeroEagle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,35 +194,358 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,9 +553,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -241,26 +811,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -547,43 +1161,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2166666666667" style="1" customWidth="1"/>
+    <col min="7" max="9" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.2166666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1083333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.8833333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.8833333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.4416666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.2166666666667" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -608,7 +1223,7 @@
       <c r="H1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="I1" s="1">
         <v>9</v>
       </c>
       <c r="K1" s="1">
@@ -629,17 +1244,23 @@
       <c r="P1" s="1">
         <v>15</v>
       </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
       <c r="R1" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +1285,10 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -688,10 +1309,10 @@
       <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -700,140 +1321,149 @@
       <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="R4" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -850,46 +1480,49 @@
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
+        <v>1080</v>
+      </c>
+      <c r="K5" s="1">
         <v>100</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>1.5</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
       <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>5</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
       </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -906,46 +1539,49 @@
       <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1">
+        <v>1080</v>
+      </c>
+      <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>1.5</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
       <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>5</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -962,40 +1598,43 @@
       <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
+        <v>1080</v>
+      </c>
+      <c r="K7" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>1.5</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
       <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>5</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
       <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2Proto/excel/HeroCfg.xlsx
+++ b/Excel2Proto/excel/HeroCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_UnityWorkSpace\Dongcidaci\Excel2Proto\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34771E-1D59-4B2B-8544-0B6F0CC40209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroBaseCfg" sheetId="1" r:id="rId1"/>
@@ -172,14 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,345 +207,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -553,251 +229,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,66 +249,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1161,44 +551,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="31.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.775" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.2166666666667" style="1" customWidth="1"/>
-    <col min="7" max="9" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2166666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1083333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.8833333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.4416666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="9" width="21.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.4416666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.8833333333333" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.4416666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.2166666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1260,7 +649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1514,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1573,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1633,8 +1022,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>